--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1318.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1318.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.022325510967776</v>
+        <v>1.012508749961853</v>
       </c>
       <c r="B1">
-        <v>2.439084755557916</v>
+        <v>1.869760036468506</v>
       </c>
       <c r="C1">
-        <v>5.143763109072395</v>
+        <v>7.718123435974121</v>
       </c>
       <c r="D1">
-        <v>2.320780816809779</v>
+        <v>2.520470142364502</v>
       </c>
       <c r="E1">
-        <v>1.253796335142926</v>
+        <v>0.4364215135574341</v>
       </c>
     </row>
   </sheetData>
